--- a/DeepBenchKernels_train.xlsx
+++ b/DeepBenchKernels_train.xlsx
@@ -153,12 +153,6 @@
     <t>K  (number of filters)</t>
   </si>
   <si>
-    <t>R (filter width)</t>
-  </si>
-  <si>
-    <t>S (filter height)</t>
-  </si>
-  <si>
     <t>Character Language Modelling</t>
   </si>
   <si>
@@ -172,6 +166,12 @@
   </si>
   <si>
     <t>Resnet</t>
+  </si>
+  <si>
+    <t>R (filter height)</t>
+  </si>
+  <si>
+    <t>S (filter width)</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:P369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1119,6 +1119,7 @@
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="12" max="12" width="16.1640625" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
@@ -2883,7 +2884,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="B91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C91">
         <v>1024</v>
@@ -2903,7 +2904,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="B92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C92">
         <v>1024</v>
@@ -4568,10 +4569,10 @@
         <v>42</v>
       </c>
       <c r="H172" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I172" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J172" t="s">
         <v>25</v>
@@ -6653,7 +6654,7 @@
     </row>
     <row r="227" spans="1:13">
       <c r="B227" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C227">
         <v>700</v>
@@ -6691,7 +6692,7 @@
     </row>
     <row r="228" spans="1:13">
       <c r="B228" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C228">
         <v>350</v>
@@ -6729,7 +6730,7 @@
     </row>
     <row r="229" spans="1:13">
       <c r="B229" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C229">
         <v>350</v>
@@ -6767,7 +6768,7 @@
     </row>
     <row r="230" spans="1:13">
       <c r="B230" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C230">
         <v>175</v>
@@ -6805,7 +6806,7 @@
     </row>
     <row r="231" spans="1:13">
       <c r="B231" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C231">
         <v>175</v>
@@ -6843,7 +6844,7 @@
     </row>
     <row r="232" spans="1:13">
       <c r="B232" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C232">
         <v>84</v>
@@ -6881,7 +6882,7 @@
     </row>
     <row r="233" spans="1:13">
       <c r="B233" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C233">
         <v>84</v>
@@ -6919,7 +6920,7 @@
     </row>
     <row r="234" spans="1:13">
       <c r="B234" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C234">
         <v>42</v>
@@ -6958,7 +6959,7 @@
     <row r="235" spans="1:13">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C235">
         <v>112</v>
@@ -6997,7 +6998,7 @@
     <row r="236" spans="1:13">
       <c r="A236" s="1"/>
       <c r="B236" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C236">
         <v>56</v>
@@ -7036,7 +7037,7 @@
     <row r="237" spans="1:13">
       <c r="A237" s="1"/>
       <c r="B237" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C237">
         <v>56</v>
@@ -7075,7 +7076,7 @@
     <row r="238" spans="1:13">
       <c r="A238" s="1"/>
       <c r="B238" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C238">
         <v>56</v>
@@ -7114,7 +7115,7 @@
     <row r="239" spans="1:13">
       <c r="A239" s="1"/>
       <c r="B239" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C239" s="1">
         <v>28</v>
@@ -7153,7 +7154,7 @@
     <row r="240" spans="1:13">
       <c r="A240" s="1"/>
       <c r="B240" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C240" s="1">
         <v>28</v>
@@ -7192,7 +7193,7 @@
     <row r="241" spans="1:13">
       <c r="A241" s="1"/>
       <c r="B241" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C241" s="1">
         <v>28</v>
@@ -7231,7 +7232,7 @@
     <row r="242" spans="1:13">
       <c r="A242" s="1"/>
       <c r="B242" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C242" s="1">
         <v>14</v>
@@ -7270,7 +7271,7 @@
     <row r="243" spans="1:13">
       <c r="A243" s="1"/>
       <c r="B243" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C243" s="1">
         <v>28</v>
@@ -7309,7 +7310,7 @@
     <row r="244" spans="1:13">
       <c r="A244" s="1"/>
       <c r="B244" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C244" s="1">
         <v>14</v>
@@ -7348,7 +7349,7 @@
     <row r="245" spans="1:13">
       <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C245" s="1">
         <v>14</v>
@@ -7387,7 +7388,7 @@
     <row r="246" spans="1:13">
       <c r="A246" s="1"/>
       <c r="B246" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C246" s="1">
         <v>14</v>
@@ -7426,7 +7427,7 @@
     <row r="247" spans="1:13">
       <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C247" s="1">
         <v>7</v>
@@ -7465,7 +7466,7 @@
     <row r="248" spans="1:13">
       <c r="A248" s="1"/>
       <c r="B248" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C248" s="1">
         <v>7</v>
@@ -7504,7 +7505,7 @@
     <row r="249" spans="1:13">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C249" s="1">
         <v>14</v>
@@ -7543,7 +7544,7 @@
     <row r="250" spans="1:13">
       <c r="A250" s="1"/>
       <c r="B250" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C250" s="1">
         <v>7</v>
@@ -7582,7 +7583,7 @@
     <row r="251" spans="1:13">
       <c r="A251" s="1"/>
       <c r="B251" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C251">
         <v>112</v>
@@ -7621,7 +7622,7 @@
     <row r="252" spans="1:13">
       <c r="A252" s="1"/>
       <c r="B252" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C252">
         <v>56</v>
@@ -7660,7 +7661,7 @@
     <row r="253" spans="1:13">
       <c r="A253" s="1"/>
       <c r="B253" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C253">
         <v>56</v>
@@ -7699,7 +7700,7 @@
     <row r="254" spans="1:13">
       <c r="A254" s="1"/>
       <c r="B254" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C254">
         <v>56</v>
@@ -7738,7 +7739,7 @@
     <row r="255" spans="1:13">
       <c r="A255" s="1"/>
       <c r="B255" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C255" s="1">
         <v>28</v>
@@ -7777,7 +7778,7 @@
     <row r="256" spans="1:13">
       <c r="A256" s="1"/>
       <c r="B256" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C256" s="1">
         <v>28</v>
@@ -7816,7 +7817,7 @@
     <row r="257" spans="1:13">
       <c r="A257" s="1"/>
       <c r="B257" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C257" s="1">
         <v>28</v>
@@ -7855,7 +7856,7 @@
     <row r="258" spans="1:13">
       <c r="A258" s="1"/>
       <c r="B258" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C258" s="1">
         <v>14</v>
@@ -7894,7 +7895,7 @@
     <row r="259" spans="1:13">
       <c r="A259" s="1"/>
       <c r="B259" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C259" s="1">
         <v>28</v>
@@ -7933,7 +7934,7 @@
     <row r="260" spans="1:13">
       <c r="A260" s="1"/>
       <c r="B260" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C260" s="1">
         <v>14</v>
@@ -7972,7 +7973,7 @@
     <row r="261" spans="1:13">
       <c r="A261" s="1"/>
       <c r="B261" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C261" s="1">
         <v>14</v>
@@ -8011,7 +8012,7 @@
     <row r="262" spans="1:13">
       <c r="A262" s="1"/>
       <c r="B262" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C262" s="1">
         <v>14</v>
@@ -8050,7 +8051,7 @@
     <row r="263" spans="1:13">
       <c r="A263" s="1"/>
       <c r="B263" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C263" s="1">
         <v>7</v>
@@ -8089,7 +8090,7 @@
     <row r="264" spans="1:13">
       <c r="A264" s="1"/>
       <c r="B264" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C264" s="1">
         <v>7</v>
@@ -8128,7 +8129,7 @@
     <row r="265" spans="1:13">
       <c r="A265" s="1"/>
       <c r="B265" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C265" s="1">
         <v>14</v>
@@ -8167,7 +8168,7 @@
     <row r="266" spans="1:13">
       <c r="A266" s="1"/>
       <c r="B266" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C266" s="1">
         <v>7</v>
@@ -8704,7 +8705,7 @@
     </row>
     <row r="312" spans="1:8">
       <c r="B312" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C312">
         <v>256</v>
@@ -8718,7 +8719,7 @@
     </row>
     <row r="313" spans="1:8">
       <c r="B313" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C313">
         <v>256</v>
@@ -8732,7 +8733,7 @@
     </row>
     <row r="314" spans="1:8">
       <c r="B314" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C314">
         <v>256</v>
@@ -8746,13 +8747,13 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B317" t="s">
         <v>29</v>
       </c>
       <c r="C317" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D317" t="s">
         <v>4</v>
@@ -9007,7 +9008,7 @@
     </row>
     <row r="335" spans="2:5">
       <c r="B335" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C335">
         <v>1024</v>
@@ -9021,7 +9022,7 @@
     </row>
     <row r="336" spans="2:5">
       <c r="B336" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C336">
         <v>1024</v>

--- a/DeepBenchKernels_train.xlsx
+++ b/DeepBenchKernels_train.xlsx
@@ -227,8 +227,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="269">
+  <cellStyleXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -503,7 +521,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="269">
+  <cellStyles count="287">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -638,6 +656,15 @@
     <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -772,6 +799,15 @@
     <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4569,22 +4605,22 @@
         <v>42</v>
       </c>
       <c r="H172" t="s">
+        <v>49</v>
+      </c>
+      <c r="I172" t="s">
         <v>48</v>
       </c>
-      <c r="I172" t="s">
-        <v>49</v>
-      </c>
       <c r="J172" t="s">
+        <v>26</v>
+      </c>
+      <c r="K172" t="s">
         <v>25</v>
       </c>
-      <c r="K172" t="s">
-        <v>26</v>
-      </c>
       <c r="L172" t="s">
+        <v>28</v>
+      </c>
+      <c r="M172" t="s">
         <v>27</v>
-      </c>
-      <c r="M172" t="s">
-        <v>28</v>
       </c>
       <c r="N172" t="s">
         <v>16</v>
@@ -4616,10 +4652,10 @@
         <v>32</v>
       </c>
       <c r="H173">
+        <v>20</v>
+      </c>
+      <c r="I173">
         <v>5</v>
-      </c>
-      <c r="I173">
-        <v>20</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -4654,10 +4690,10 @@
         <v>32</v>
       </c>
       <c r="H174">
+        <v>20</v>
+      </c>
+      <c r="I174">
         <v>5</v>
-      </c>
-      <c r="I174">
-        <v>20</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -4692,10 +4728,10 @@
         <v>32</v>
       </c>
       <c r="H175">
+        <v>20</v>
+      </c>
+      <c r="I175">
         <v>5</v>
-      </c>
-      <c r="I175">
-        <v>20</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -4730,10 +4766,10 @@
         <v>32</v>
       </c>
       <c r="H176">
+        <v>20</v>
+      </c>
+      <c r="I176">
         <v>5</v>
-      </c>
-      <c r="I176">
-        <v>20</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -4768,10 +4804,10 @@
         <v>32</v>
       </c>
       <c r="H177">
+        <v>10</v>
+      </c>
+      <c r="I177">
         <v>5</v>
-      </c>
-      <c r="I177">
-        <v>10</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -4806,10 +4842,10 @@
         <v>32</v>
       </c>
       <c r="H178">
+        <v>10</v>
+      </c>
+      <c r="I178">
         <v>5</v>
-      </c>
-      <c r="I178">
-        <v>10</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -4844,10 +4880,10 @@
         <v>32</v>
       </c>
       <c r="H179">
+        <v>10</v>
+      </c>
+      <c r="I179">
         <v>5</v>
-      </c>
-      <c r="I179">
-        <v>10</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -4882,10 +4918,10 @@
         <v>32</v>
       </c>
       <c r="H180">
+        <v>10</v>
+      </c>
+      <c r="I180">
         <v>5</v>
-      </c>
-      <c r="I180">
-        <v>10</v>
       </c>
       <c r="J180">
         <v>0</v>
